--- a/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.590621424865746</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.812095839091076</v>
+        <v>0.8120958390910871</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07570765456423995</v>
@@ -649,7 +649,7 @@
         <v>0.02147084159556641</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.008527272705246095</v>
+        <v>0.008527272705246213</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9984102276638157</v>
+        <v>0.7736397020151524</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.590643420636531</v>
+        <v>2.708148036842132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.837391924549432</v>
+        <v>-2.840999733678599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.208782300484772</v>
+        <v>-1.251197499293624</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01331876715004371</v>
+        <v>0.01120065765739585</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03492430071728129</v>
+        <v>0.03414730937471023</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03757462613370946</v>
+        <v>-0.03739545583244074</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.01255716923474949</v>
+        <v>-0.01302623611679173</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.23914656482745</v>
+        <v>9.864446211825255</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.10801870962637</v>
+        <v>11.67386354210846</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.25792717409374</v>
+        <v>6.720236459200154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.287318386639185</v>
+        <v>3.305222050843393</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1452216018063311</v>
+        <v>0.1431231335648327</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.152898292659161</v>
+        <v>0.1605691968916501</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08710681716642887</v>
+        <v>0.0934379194267865</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.0351362637856105</v>
+        <v>0.03510965678216464</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.814635996293315</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.707484117330305</v>
+        <v>1.707484117330316</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1061240031474543</v>
@@ -749,7 +749,7 @@
         <v>0.06697519418907377</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01787517705656767</v>
+        <v>0.01787517705656779</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.900125942766655</v>
+        <v>1.882024303598979</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.550097133859214</v>
+        <v>2.562533077801773</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8669243055785871</v>
+        <v>0.6671456622242125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08001326857154029</v>
+        <v>-0.02505014286679026</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02921925360500044</v>
+        <v>0.02923425499501638</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03490469722177929</v>
+        <v>0.03518074552298032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01134680566037331</v>
+        <v>0.009143697475878627</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.001097932903153153</v>
+        <v>-0.0002488864954853078</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.96063387422778</v>
+        <v>11.10026738113215</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.98170389164061</v>
+        <v>11.01174661393589</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.01642828466357</v>
+        <v>8.637959233107171</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.507920644004921</v>
+        <v>3.54587275421447</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1858101845535941</v>
+        <v>0.1846015222897992</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.160476029678881</v>
+        <v>0.1615063441193645</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1296059571199732</v>
+        <v>0.1241737242449478</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03737798977754635</v>
+        <v>0.03777538452903875</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.26598433914427</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8380367150360168</v>
+        <v>0.8380367150359946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2177727576678503</v>
@@ -849,7 +849,7 @@
         <v>0.0938713111186171</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.009005508025569176</v>
+        <v>0.009005508025568938</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.583016037358736</v>
+        <v>7.541015343494973</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.937570399561858</v>
+        <v>3.382685931004572</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.864696104109455</v>
+        <v>1.177551864809717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.724877274173624</v>
+        <v>-2.05444274211425</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.129119844391595</v>
+        <v>0.125109936171174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05586054708673802</v>
+        <v>0.04874613934190344</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02777985277683476</v>
+        <v>0.0173300139796741</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.01822182292154267</v>
+        <v>-0.02228797068082073</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.86291848622745</v>
+        <v>17.8309616577969</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.7140410755349</v>
+        <v>13.12945570759342</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.37633652330104</v>
+        <v>10.90786653861323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.934268165811688</v>
+        <v>3.657458388042823</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3305358204386319</v>
+        <v>0.3261417463600054</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.21739819556347</v>
+        <v>0.2051639052294437</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.181229186892473</v>
+        <v>0.1714743480807048</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04328075048425532</v>
+        <v>0.04015675759345096</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.625478979257582</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.87578370731728</v>
+        <v>1.875783707317291</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.12630723358351</v>
@@ -949,7 +949,7 @@
         <v>0.08728308084854079</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02004220584623578</v>
+        <v>0.02004220584623589</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.750177358423835</v>
+        <v>3.408433071523245</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.357127661634522</v>
+        <v>7.013244372643841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.180919061491845</v>
+        <v>2.814299760073791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.02567878556030637</v>
+        <v>-0.08616504119324742</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06010270233708374</v>
+        <v>0.05415630572172971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09944948551396048</v>
+        <v>0.09430755751654346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04073067622018237</v>
+        <v>0.03601367109294322</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0004154356866718364</v>
+        <v>-0.000906152989483649</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.07165944721939</v>
+        <v>11.79121859922956</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.72588183955389</v>
+        <v>14.46612274020529</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.21451208537697</v>
+        <v>10.12762051041789</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.054848556922861</v>
+        <v>3.982754245895106</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2032737557580733</v>
+        <v>0.2003540942799878</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2111960967886347</v>
+        <v>0.2080604708254886</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1385605831522659</v>
+        <v>0.1379400726035885</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04370236367309357</v>
+        <v>0.04343897261663355</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.021794031463165</v>
+        <v>5.438397801642045</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.332675860874071</v>
+        <v>6.389658348181006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.787233816489573</v>
+        <v>2.85142131594296</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3552419644812814</v>
+        <v>0.325074811368826</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07901508225560805</v>
+        <v>0.08407349370273889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.087337673760281</v>
+        <v>0.08953727569212207</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03821618311202692</v>
+        <v>0.03911584593108719</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.003790307431897135</v>
+        <v>0.003408966912881734</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.08073231960078</v>
+        <v>10.03829552672623</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.62318325965496</v>
+        <v>10.72015296244258</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.218447276188924</v>
+        <v>7.146413091629776</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.49556356706654</v>
+        <v>2.523215155364652</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1628238367953258</v>
+        <v>0.1626679325312806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1519553449422708</v>
+        <v>0.1540146661875056</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1014281152523454</v>
+        <v>0.1004086784628799</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.02666277463304059</v>
+        <v>0.02701347794326522</v>
       </c>
     </row>
     <row r="19">
